--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\emilds\Courses\ADAV\adav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33971012-E58A-4D41-AE71-74DBABA60F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1BCC3C-05EC-4655-9250-303FACE37239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
-  <si>
-    <t>tmp0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>v3</t>
   </si>
@@ -399,255 +396,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -685,44 +644,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -754,7 +678,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -783,7 +707,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -803,7 +727,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>7</v>
@@ -820,7 +744,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -840,194 +764,156 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>9</v>
-      </c>
-      <c r="L29">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>14</v>
-      </c>
-      <c r="K31">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>10</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>6</v>
-      </c>
-      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
     </row>
